--- a/texte_results_NR.xlsx
+++ b/texte_results_NR.xlsx
@@ -125,210 +125,236 @@
     <t>Catchword, Headline, Text_mehrere_Gewinner, Text_mehrere_Verlierer, Intro_Tabelle, Outro_Tabelle, Outro_Tabelle_Special_ZH, Disclaimer</t>
   </si>
   <si>
-    <t xml:space="preserve">Wahlen 2023 - AG NR END
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - AG NR END&lt;/b&gt;
 Die Verteilung der 16 Sitze im Kanton Aargau
 Im Kanton Aargau haben die SP (+1), die Mitte (+1) und die EVP (+1) Sitze gewonnen. Die SVP (-1), die FDP (-1) und die BDP (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton Aargau im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;31,5%&lt;/td&gt;&lt;td&gt;-6,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;9,9%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,8%&lt;/td&gt;&lt;td&gt;+4,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,5%&lt;/td&gt;&lt;td&gt;+3,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;3,6%&lt;/td&gt;&lt;td&gt;+0,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;3,1%&lt;/td&gt;&lt;td&gt;-2,1&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 16. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - AI NR END
+Das Resultat der Nationalratswahlen im Kanton Aargau im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;31,5%&lt;/td&gt;&lt;td&gt;-6,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;9,9%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,8%&lt;/td&gt;&lt;td&gt;+4,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,5%&lt;/td&gt;&lt;td&gt;+3,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;3,6%&lt;/td&gt;&lt;td&gt;+0,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;3,1%&lt;/td&gt;&lt;td&gt;-2,1&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 16. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - AI NR END&lt;/b&gt;
 Die Zuteilung des Sitzes im Kanton Appenzell Innerrhoden
 Die Sitzverteilung im Kanton Appenzell Innerrhoden bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Appenzell Innerrhoden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;61,3%&lt;/td&gt;&lt;td&gt;-15,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;29,1%&lt;/td&gt;&lt;td&gt;+29,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,7%&lt;/td&gt;&lt;td&gt;-9,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 1. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - AR NR END
+Das Resultat der Nationalratswahlen im Kanton Appenzell Innerrhoden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;61,3%&lt;/td&gt;&lt;td&gt;-15,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;29,1%&lt;/td&gt;&lt;td&gt;+29,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,7%&lt;/td&gt;&lt;td&gt;-9,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 1. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - AR NR END&lt;/b&gt;
 Die Zuteilung des Sitzes im Kanton Appenzell Ausserrhoden
 Die Sitzverteilung im Kanton Appenzell Ausserrhoden bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Appenzell Ausserrhoden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;49,5%&lt;/td&gt;&lt;td&gt;+13,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;48,4%&lt;/td&gt;&lt;td&gt;+14,9&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 1. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - BE NR END
+Das Resultat der Nationalratswahlen im Kanton Appenzell Ausserrhoden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;49,5%&lt;/td&gt;&lt;td&gt;+13,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;48,4%&lt;/td&gt;&lt;td&gt;+14,9&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 1. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - BE NR END&lt;/b&gt;
 Die Verteilung der 24 Sitze im Kanton Bern
 Im Kanton Bern haben die Grünen (+2), die GLP (+1) und die EDU (+1) Sitze gewonnen. Die SVP (-2), die SP (-2) und die BDP (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton Bern im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;30,0%&lt;/td&gt;&lt;td&gt;-3,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;16,8%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;+5,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;9,7%&lt;/td&gt;&lt;td&gt;+3,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,4%&lt;/td&gt;&lt;td&gt;-1,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;8,0%&lt;/td&gt;&lt;td&gt;-3,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,2%&lt;/td&gt;&lt;td&gt;-0,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EDU&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;2,5%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,9%&lt;/td&gt;&lt;td&gt;+2,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 24. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - BL NR END
+Das Resultat der Nationalratswahlen im Kanton Bern im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;30,0%&lt;/td&gt;&lt;td&gt;-3,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;16,8%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;+5,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;9,7%&lt;/td&gt;&lt;td&gt;+3,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,4%&lt;/td&gt;&lt;td&gt;-1,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;8,0%&lt;/td&gt;&lt;td&gt;-3,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,2%&lt;/td&gt;&lt;td&gt;-0,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EDU&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;2,5%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,9%&lt;/td&gt;&lt;td&gt;+2,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 24. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - BL NR END&lt;/b&gt;
 Die Verteilung der sieben Sitze im Kanton Basel-Landschaft
 Die Sitzverteilung im Kanton Basel-Landschaft bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Basel-Landschaft im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,1%&lt;/td&gt;&lt;td&gt;-4,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;21,8%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,0%&lt;/td&gt;&lt;td&gt;+3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,5%&lt;/td&gt;&lt;td&gt;-0,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,3%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,5%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 7. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - BS NR END
+Das Resultat der Nationalratswahlen im Kanton Basel-Landschaft im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,1%&lt;/td&gt;&lt;td&gt;-4,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;21,8%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,0%&lt;/td&gt;&lt;td&gt;+3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,5%&lt;/td&gt;&lt;td&gt;-0,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,3%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,5%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 7. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - BS NR END&lt;/b&gt;
 Die Verteilung der vier Sitze im Kanton Basel-Stadt
 Im Kanton Basel-Stadt hat die GLP einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Basel-Stadt im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;32,7%&lt;/td&gt;&lt;td&gt;-0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;17,7%&lt;/td&gt;&lt;td&gt;+6,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;LDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,3%&lt;/td&gt;&lt;td&gt;+3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;5,7%&lt;/td&gt;&lt;td&gt;+0,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;12,4%&lt;/td&gt;&lt;td&gt;-5,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,0%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,6%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,0%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 4. Es wurde ein Sitz weniger vergeben als noch 2019.
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - FR NR END
+Das Resultat der Nationalratswahlen im Kanton Basel-Stadt im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;32,7%&lt;/td&gt;&lt;td&gt;-0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;17,7%&lt;/td&gt;&lt;td&gt;+6,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;LDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,3%&lt;/td&gt;&lt;td&gt;+3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;5,7%&lt;/td&gt;&lt;td&gt;+0,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;12,4%&lt;/td&gt;&lt;td&gt;-5,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,0%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,6%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,0%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 4. Es wurde ein Sitz weniger vergeben als noch 2019.
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - FR NR END&lt;/b&gt;
 Die Verteilung der sieben Sitze im Kanton Freiburg
 Im Kanton Freiburg haben die Grünen einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Freiburg im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;21,2%&lt;/td&gt;&lt;td&gt;-3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;17,8%&lt;/td&gt;&lt;td&gt;-4,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;20,2%&lt;/td&gt;&lt;td&gt;-5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,4%&lt;/td&gt;&lt;td&gt;+1,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;12,5%&lt;/td&gt;&lt;td&gt;+7,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;+2,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CSP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,3%&lt;/td&gt;&lt;td&gt;+1,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 7. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - GE NR END
+Das Resultat der Nationalratswahlen im Kanton Freiburg im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;21,2%&lt;/td&gt;&lt;td&gt;-3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;17,8%&lt;/td&gt;&lt;td&gt;-4,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;20,2%&lt;/td&gt;&lt;td&gt;-5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,4%&lt;/td&gt;&lt;td&gt;+1,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;12,5%&lt;/td&gt;&lt;td&gt;+7,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;+2,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CSP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,3%&lt;/td&gt;&lt;td&gt;+1,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 7. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - GE NR END&lt;/b&gt;
 Die Verteilung der zwölf Sitze im Kanton Genf
 Im Kanton Genf haben die Grünen (+2), die PdA (+1) und die GLP (+1) Sitze gewonnen. Die FDP (-1), die SP (-1) und die MCG (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton Genf im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;24,6%&lt;/td&gt;&lt;td&gt;+13,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;17,9%&lt;/td&gt;&lt;td&gt;-2,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;14,7%&lt;/td&gt;&lt;td&gt;-5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,7%&lt;/td&gt;&lt;td&gt;-4,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;7,7%&lt;/td&gt;&lt;td&gt;-4,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,4%&lt;/td&gt;&lt;td&gt;+1,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;+3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MCG&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;-2,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 12. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - GL NR END
+Das Resultat der Nationalratswahlen im Kanton Genf im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;24,6%&lt;/td&gt;&lt;td&gt;+13,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;17,9%&lt;/td&gt;&lt;td&gt;-2,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;14,7%&lt;/td&gt;&lt;td&gt;-5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,7%&lt;/td&gt;&lt;td&gt;-4,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;7,7%&lt;/td&gt;&lt;td&gt;-4,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,4%&lt;/td&gt;&lt;td&gt;+1,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;+3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MCG&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;-2,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 12. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - GL NR END&lt;/b&gt;
 Die Zuteilung des Sitzes im Kanton Glarus
 Die Sitzverteilung im Kanton Glarus bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Glarus im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;63,0%&lt;/td&gt;&lt;td&gt;+11,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;28,2%&lt;/td&gt;&lt;td&gt;-16,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,0%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 1. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - GR NR END
+Das Resultat der Nationalratswahlen im Kanton Glarus im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;63,0%&lt;/td&gt;&lt;td&gt;+11,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;28,2%&lt;/td&gt;&lt;td&gt;-16,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,0%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 1. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - GR NR END&lt;/b&gt;
 Die Verteilung der fünf Sitze im Kanton Graubünden
 Im Kanton Graubünden haben die SP (+1) und die FDP (+1) Sitze gewonnen. Die SVP (-1) und die BDP (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton Graubünden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;17,1%&lt;/td&gt;&lt;td&gt;-0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;29,9%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,3%&lt;/td&gt;&lt;td&gt;-0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;-5,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,3%&lt;/td&gt;&lt;td&gt;+0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,5%&lt;/td&gt;&lt;td&gt;+5,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 5. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - JU NR END
+Das Resultat der Nationalratswahlen im Kanton Graubünden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;17,1%&lt;/td&gt;&lt;td&gt;-0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;29,9%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,3%&lt;/td&gt;&lt;td&gt;-0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;-5,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,3%&lt;/td&gt;&lt;td&gt;+0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,5%&lt;/td&gt;&lt;td&gt;+5,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 5. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - JU NR END&lt;/b&gt;
 Die Verteilung der zwei Sitze im Kanton Jura
 Die Sitzverteilung im Kanton Jura bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Jura im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;27,0%&lt;/td&gt;&lt;td&gt;+3,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,8%&lt;/td&gt;&lt;td&gt;-4,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,6%&lt;/td&gt;&lt;td&gt;+8,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,5%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CSP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,6%&lt;/td&gt;&lt;td&gt;+3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;-7,7&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 2. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - LU NR END
+Das Resultat der Nationalratswahlen im Kanton Jura im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;27,0%&lt;/td&gt;&lt;td&gt;+3,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,8%&lt;/td&gt;&lt;td&gt;-4,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,6%&lt;/td&gt;&lt;td&gt;+8,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,5%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CSP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,6%&lt;/td&gt;&lt;td&gt;+3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;-7,7&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 2. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - LU NR END&lt;/b&gt;
 Die Verteilung der neun Sitze im Kanton Luzern
 Im Kanton Luzern hat die GLP einen Sitz gewonnen. Die SVP (-1) und die FDP (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton Luzern im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,5%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;24,7%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;15,6%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,5%&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,2%&lt;/td&gt;&lt;td&gt;+5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,1%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 9. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - NE NR END
+Das Resultat der Nationalratswahlen im Kanton Luzern im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,5%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;24,7%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;15,6%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,5%&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,2%&lt;/td&gt;&lt;td&gt;+5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,1%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 9. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - NE NR END&lt;/b&gt;
 Die Verteilung der vier Sitze im Kanton Neuenburg
 Im Kanton Neuenburg haben die Grünen einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Neuenburg im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,3%&lt;/td&gt;&lt;td&gt;-2,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;20,8%&lt;/td&gt;&lt;td&gt;+11,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,6%&lt;/td&gt;&lt;td&gt;-7,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;+1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-7,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;+5,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,2%&lt;/td&gt;&lt;td&gt;+0,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 4. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - NW NR END
+Das Resultat der Nationalratswahlen im Kanton Neuenburg im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,3%&lt;/td&gt;&lt;td&gt;-2,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;20,8%&lt;/td&gt;&lt;td&gt;+11,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,6%&lt;/td&gt;&lt;td&gt;-7,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;+1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-7,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;+5,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,2%&lt;/td&gt;&lt;td&gt;+0,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 4. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - NW NR END&lt;/b&gt;
 Die Zuteilung des Sitzes im Kanton Nidwalden
 Die Sitzverteilung im Kanton Nidwalden bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Nidwalden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;64,2%&lt;/td&gt;&lt;td&gt;-18,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;35,8%&lt;/td&gt;&lt;td&gt;+35,8&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 1. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - OW NR END
+Das Resultat der Nationalratswahlen im Kanton Nidwalden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;64,2%&lt;/td&gt;&lt;td&gt;-18,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;35,8%&lt;/td&gt;&lt;td&gt;+35,8&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 1. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - OW NR END&lt;/b&gt;
 Die Zuteilung des Sitzes im Kanton Obwalden
 Im Kanton Obwalden hat die SVP einen Sitz gewonnen. Die weitere hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Obwalden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;37,3%&lt;/td&gt;&lt;td&gt;+2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,7%&lt;/td&gt;&lt;td&gt;+36,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,6%&lt;/td&gt;&lt;td&gt;+11,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;11,5%&lt;/td&gt;&lt;td&gt;-53,9&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 1. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - SG NR END
+Das Resultat der Nationalratswahlen im Kanton Obwalden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;37,3%&lt;/td&gt;&lt;td&gt;+2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,7%&lt;/td&gt;&lt;td&gt;+36,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,6%&lt;/td&gt;&lt;td&gt;+11,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;11,5%&lt;/td&gt;&lt;td&gt;-53,9&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 1. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - SG NR END&lt;/b&gt;
 Die Verteilung der zwölf Sitze im Kanton St. Gallen
 Im Kanton St. Gallen haben die Grünen (+1) und die GLP (+1) Sitze gewonnen. Die SVP (-1) und die Mitte (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton St. Gallen im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;31,3%&lt;/td&gt;&lt;td&gt;-4,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;18,8%&lt;/td&gt;&lt;td&gt;+2,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,0%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-1,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,5%&lt;/td&gt;&lt;td&gt;+4,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,3%&lt;/td&gt;&lt;td&gt;+2,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 12. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - SH NR END
+Das Resultat der Nationalratswahlen im Kanton St. Gallen im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;31,3%&lt;/td&gt;&lt;td&gt;-4,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;18,8%&lt;/td&gt;&lt;td&gt;+2,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,0%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-1,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,5%&lt;/td&gt;&lt;td&gt;+4,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,3%&lt;/td&gt;&lt;td&gt;+2,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 12. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - SH NR END&lt;/b&gt;
 Die Verteilung der zwei Sitze im Kanton Schaffhausen
 Die Sitzverteilung im Kanton Schaffhausen bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Schaffhausen im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;39,5%&lt;/td&gt;&lt;td&gt;-5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;26,2%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,0%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,8%&lt;/td&gt;&lt;td&gt;+3,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,9%&lt;/td&gt;&lt;td&gt;+5,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EDU&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,4%&lt;/td&gt;&lt;td&gt;-1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FGA&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,2%&lt;/td&gt;&lt;td&gt;-1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 2. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - SO NR END
+Das Resultat der Nationalratswahlen im Kanton Schaffhausen im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;39,5%&lt;/td&gt;&lt;td&gt;-5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;26,2%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,0%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,8%&lt;/td&gt;&lt;td&gt;+3,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,9%&lt;/td&gt;&lt;td&gt;+5,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EDU&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,4%&lt;/td&gt;&lt;td&gt;-1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FGA&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,2%&lt;/td&gt;&lt;td&gt;-1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 2. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - SO NR END&lt;/b&gt;
 Die Verteilung der sechs Sitze im Kanton Solothurn
 Im Kanton Solothurn haben die Grünen einen Sitz gewonnen. Die SP hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Solothurn im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,9%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,5%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;18,4%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,2%&lt;/td&gt;&lt;td&gt;-0,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;11,4%&lt;/td&gt;&lt;td&gt;+5,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,8%&lt;/td&gt;&lt;td&gt;+3,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 6. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - SZ NR END
+Das Resultat der Nationalratswahlen im Kanton Solothurn im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,9%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,5%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;18,4%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,2%&lt;/td&gt;&lt;td&gt;-0,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;11,4%&lt;/td&gt;&lt;td&gt;+5,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,8%&lt;/td&gt;&lt;td&gt;+3,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 6. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - SZ NR END&lt;/b&gt;
 Die Verteilung der vier Sitze im Kanton Schwyz
 Die Sitzverteilung im Kanton Schwyz bleibt unverändert. 
-Das Resultat der Nationalratswahlen im Kanton Schwyz im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,9%&lt;/td&gt;&lt;td&gt;-5,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,1%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,4%&lt;/td&gt;&lt;td&gt;-1,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,8%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,6%&lt;/td&gt;&lt;td&gt;+1,8&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 4. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - TG NR END
+Das Resultat der Nationalratswahlen im Kanton Schwyz im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,9%&lt;/td&gt;&lt;td&gt;-5,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,1%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,4%&lt;/td&gt;&lt;td&gt;-1,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,8%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,6%&lt;/td&gt;&lt;td&gt;+1,8&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 4. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - TG NR END&lt;/b&gt;
 Die Verteilung der sechs Sitze im Kanton Thurgau
 Im Kanton Thurgau haben die Grünen einen Sitz gewonnen. Die FDP hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Thurgau im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,7%&lt;/td&gt;&lt;td&gt;-3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,6%&lt;/td&gt;&lt;td&gt;-0,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,6%&lt;/td&gt;&lt;td&gt;+5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;11,5%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,1%&lt;/td&gt;&lt;td&gt;+2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 6. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - TI NR END
+Das Resultat der Nationalratswahlen im Kanton Thurgau im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,7%&lt;/td&gt;&lt;td&gt;-3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,6%&lt;/td&gt;&lt;td&gt;-0,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,6%&lt;/td&gt;&lt;td&gt;+5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;11,5%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,1%&lt;/td&gt;&lt;td&gt;+2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 6. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - TI NR END&lt;/b&gt;
 Die Verteilung der acht Sitze im Kanton Tessin
 Im Kanton Tessin haben die Grünen einen Sitz gewonnen. Die Lega hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Tessin im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;20,5%&lt;/td&gt;&lt;td&gt;-3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,2%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Lega&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;16,9%&lt;/td&gt;&lt;td&gt;-4,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;12,1%&lt;/td&gt;&lt;td&gt;+8,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,7%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,6%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 8. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - UR NR END
+Das Resultat der Nationalratswahlen im Kanton Tessin im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;20,5%&lt;/td&gt;&lt;td&gt;-3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,2%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Lega&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;16,9%&lt;/td&gt;&lt;td&gt;-4,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;12,1%&lt;/td&gt;&lt;td&gt;+8,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,7%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,6%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 8. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - UR NR END&lt;/b&gt;
 Die Zuteilung des Sitzes im Kanton Uri
 Im Kanton Uri hat die Mitte einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Uri im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;39,2%&lt;/td&gt;&lt;td&gt;+12,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;36,3%&lt;/td&gt;&lt;td&gt;-7,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,3%&lt;/td&gt;&lt;td&gt;+22,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 1. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - VD NR END
+Das Resultat der Nationalratswahlen im Kanton Uri im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;39,2%&lt;/td&gt;&lt;td&gt;+12,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;36,3%&lt;/td&gt;&lt;td&gt;-7,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,3%&lt;/td&gt;&lt;td&gt;+22,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 1. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - VD NR END&lt;/b&gt;
 Die Verteilung der 19 Sitze im Kanton Waadt
 Im Kanton Waadt haben die Grünen (+2) und die GLP (+1) Sitze gewonnen. Die SVP (-1) und die Mitte (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton Waadt im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,3%&lt;/td&gt;&lt;td&gt;-3,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;20,4%&lt;/td&gt;&lt;td&gt;-1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;19,7%&lt;/td&gt;&lt;td&gt;+8,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;17,4%&lt;/td&gt;&lt;td&gt;-5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;8,4%&lt;/td&gt;&lt;td&gt;+4,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,1%&lt;/td&gt;&lt;td&gt;+1,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;2,4%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 19. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - VS NR END
+Das Resultat der Nationalratswahlen im Kanton Waadt im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,3%&lt;/td&gt;&lt;td&gt;-3,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;20,4%&lt;/td&gt;&lt;td&gt;-1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;19,7%&lt;/td&gt;&lt;td&gt;+8,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;17,4%&lt;/td&gt;&lt;td&gt;-5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;8,4%&lt;/td&gt;&lt;td&gt;+4,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,1%&lt;/td&gt;&lt;td&gt;+1,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;2,4%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 19. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - VS NR END&lt;/b&gt;
 Die Verteilung der acht Sitze im Kanton Wallis
 Im Kanton Wallis haben die Grünen einen Sitz gewonnen. Die Mitte hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Wallis im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;34,8%&lt;/td&gt;&lt;td&gt;-5,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;19,8%&lt;/td&gt;&lt;td&gt;-2,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;-1,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,1%&lt;/td&gt;&lt;td&gt;+1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,6%&lt;/td&gt;&lt;td&gt;+5,7&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 8. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - ZG NR END
+Das Resultat der Nationalratswahlen im Kanton Wallis im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;34,8%&lt;/td&gt;&lt;td&gt;-5,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;19,8%&lt;/td&gt;&lt;td&gt;-2,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;-1,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,1%&lt;/td&gt;&lt;td&gt;+1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,6%&lt;/td&gt;&lt;td&gt;+5,7&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 8. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - ZG NR END&lt;/b&gt;
 Die Verteilung der drei Sitze im Kanton Zug
 Im Kanton Zug haben die Grünen einen Sitz gewonnen. Die FDP hat einen Sitz verloren.
-Das Resultat der Nationalratswahlen im Kanton Zug im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;26,6%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,8%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;19,2%&lt;/td&gt;&lt;td&gt;+12,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;14,7%&lt;/td&gt;&lt;td&gt;-3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,3%&lt;/td&gt;&lt;td&gt;-4,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,5%&lt;/td&gt;&lt;td&gt;+2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 3. 
-Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlen 2023 - ZH NR END
+Das Resultat der Nationalratswahlen im Kanton Zug im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;26,6%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,8%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;19,2%&lt;/td&gt;&lt;td&gt;+12,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;14,7%&lt;/td&gt;&lt;td&gt;-3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,3%&lt;/td&gt;&lt;td&gt;-4,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,5%&lt;/td&gt;&lt;td&gt;+2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 3. 
+Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - ZH NR END&lt;/b&gt;
 Die Verteilung der 36 Sitze im Kanton Zürich
 Im Kanton Zürich haben die GLP (+3) und die Grünen (+3) Sitze gewonnen. Die SVP (-2), die SP (-2), die Mitte (-1) und die BDP (-1) haben Sitze verloren.
-Das Resultat der Nationalratswahlen im Kanton Zürich im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;26,7%&lt;/td&gt;&lt;td&gt;-4,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;17,3%&lt;/td&gt;&lt;td&gt;-4,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;+3&lt;/td&gt;&lt;td&gt;14,0%&lt;/td&gt;&lt;td&gt;+5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;+3&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;+7,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,7%&lt;/td&gt;&lt;td&gt;-1,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;4,4%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,3%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;1,6%&lt;/td&gt;&lt;td&gt;-2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;Anzahl Sitze 2023: 36. Es wurde ein Sitz mehr vergeben als noch 2019.
+Das Resultat der Nationalratswahlen im Kanton Zürich im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;26,7%&lt;/td&gt;&lt;td&gt;-4,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;17,3%&lt;/td&gt;&lt;td&gt;-4,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;+3&lt;/td&gt;&lt;td&gt;14,0%&lt;/td&gt;&lt;td&gt;+5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;+3&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;+7,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,7%&lt;/td&gt;&lt;td&gt;-1,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;4,4%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,3%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;1,6%&lt;/td&gt;&lt;td&gt;-2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+Anzahl Sitze 2023: 36. Es wurde ein Sitz mehr vergeben als noch 2019.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>

--- a/texte_results_NR.xlsx
+++ b/texte_results_NR.xlsx
@@ -101,28 +101,28 @@
     <t>ZH</t>
   </si>
   <si>
-    <t>Catchword, Headline, Text_mehrere_Gewinner, Text_mehrere_Verlierer, Intro_Tabelle, Outro_Tabelle, , Disclaimer</t>
-  </si>
-  <si>
-    <t>Catchword, Headline_ein_Sitz, Text_Special_keineGewinnerVerlierer, , Intro_Tabelle, Outro_Tabelle, , Disclaimer</t>
-  </si>
-  <si>
-    <t>Catchword, Headline, Text_Special_keineGewinnerVerlierer, , Intro_Tabelle, Outro_Tabelle, , Disclaimer</t>
-  </si>
-  <si>
-    <t>Catchword, Headline, Text_ein_Gewinner_ein_Sitz, Text_ein_Verlierer_ein_Sitz, Intro_Tabelle, Outro_Tabelle, Outro_Tabelle_Special_BS, Disclaimer</t>
-  </si>
-  <si>
-    <t>Catchword, Headline, Text_ein_Gewinner_ein_Sitz, Text_ein_Verlierer_ein_Sitz, Intro_Tabelle, Outro_Tabelle, , Disclaimer</t>
-  </si>
-  <si>
-    <t>Catchword, Headline, Text_ein_Gewinner_ein_Sitz, Text_mehrere_Verlierer, Intro_Tabelle, Outro_Tabelle, , Disclaimer</t>
-  </si>
-  <si>
-    <t>Catchword, Headline_ein_Sitz, Text_ein_Gewinner_ein_Sitz, Text_ein_Verlierer_ein_Sitz, Intro_Tabelle, Outro_Tabelle, , Disclaimer</t>
-  </si>
-  <si>
-    <t>Catchword, Headline, Text_mehrere_Gewinner, Text_mehrere_Verlierer, Intro_Tabelle, Outro_Tabelle, Outro_Tabelle_Special_ZH, Disclaimer</t>
+    <t>Catchword, Headline, Text_mehrere_Gewinner, Text_mehrere_Verlierer, Intro_Tabelle, Outro_Tabelle, , Explainer, Disclaimer</t>
+  </si>
+  <si>
+    <t>Catchword, Headline_ein_Sitz, Text_Special_keineGewinnerVerlierer, , Intro_Tabelle, Outro_Tabelle, , Explainer, Disclaimer</t>
+  </si>
+  <si>
+    <t>Catchword, Headline, Text_Special_keineGewinnerVerlierer, , Intro_Tabelle, Outro_Tabelle, , Explainer, Disclaimer</t>
+  </si>
+  <si>
+    <t>Catchword, Headline, Text_ein_Gewinner_ein_Sitz, Text_ein_Verlierer_ein_Sitz, Intro_Tabelle, Outro_Tabelle, Outro_Tabelle_Special_BS, Explainer, Disclaimer</t>
+  </si>
+  <si>
+    <t>Catchword, Headline, Text_ein_Gewinner_ein_Sitz, Text_ein_Verlierer_ein_Sitz, Intro_Tabelle, Outro_Tabelle, , Explainer, Disclaimer</t>
+  </si>
+  <si>
+    <t>Catchword, Headline, Text_ein_Gewinner_ein_Sitz, Text_mehrere_Verlierer, Intro_Tabelle, Outro_Tabelle, , Explainer, Disclaimer</t>
+  </si>
+  <si>
+    <t>Catchword, Headline_ein_Sitz, Text_ein_Gewinner_ein_Sitz, Text_ein_Verlierer_ein_Sitz, Intro_Tabelle, Outro_Tabelle, , Explainer, Disclaimer</t>
+  </si>
+  <si>
+    <t>Catchword, Headline, Text_mehrere_Gewinner, Text_mehrere_Verlierer, Intro_Tabelle, Outro_Tabelle, Outro_Tabelle_Special_ZH, Explainer, Disclaimer</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Wahlen 2023 - AG NR END&lt;/b&gt;
@@ -130,6 +130,7 @@
 Im Kanton Aargau haben die SP (+1), die Mitte (+1) und die EVP (+1) Sitze gewonnen. Die SVP (-1), die FDP (-1) und die BDP (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton Aargau im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;31,5%&lt;/td&gt;&lt;td&gt;-6,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;9,9%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,8%&lt;/td&gt;&lt;td&gt;+4,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,5%&lt;/td&gt;&lt;td&gt;+3,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;3,6%&lt;/td&gt;&lt;td&gt;+0,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;3,1%&lt;/td&gt;&lt;td&gt;-2,1&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 16. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -139,6 +140,7 @@
 Die Sitzverteilung im Kanton Appenzell Innerrhoden bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Appenzell Innerrhoden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;61,3%&lt;/td&gt;&lt;td&gt;-15,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;29,1%&lt;/td&gt;&lt;td&gt;+29,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,7%&lt;/td&gt;&lt;td&gt;-9,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 1. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -148,6 +150,7 @@
 Die Sitzverteilung im Kanton Appenzell Ausserrhoden bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Appenzell Ausserrhoden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;49,5%&lt;/td&gt;&lt;td&gt;+13,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;48,4%&lt;/td&gt;&lt;td&gt;+14,9&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 1. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -157,6 +160,7 @@
 Im Kanton Bern haben die Grünen (+2), die GLP (+1) und die EDU (+1) Sitze gewonnen. Die SVP (-2), die SP (-2) und die BDP (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton Bern im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;30,0%&lt;/td&gt;&lt;td&gt;-3,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;16,8%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;+5,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;9,7%&lt;/td&gt;&lt;td&gt;+3,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,4%&lt;/td&gt;&lt;td&gt;-1,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;8,0%&lt;/td&gt;&lt;td&gt;-3,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,2%&lt;/td&gt;&lt;td&gt;-0,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EDU&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;2,5%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,9%&lt;/td&gt;&lt;td&gt;+2,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 24. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -166,6 +170,7 @@
 Die Sitzverteilung im Kanton Basel-Landschaft bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Basel-Landschaft im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,1%&lt;/td&gt;&lt;td&gt;-4,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;21,8%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,0%&lt;/td&gt;&lt;td&gt;+3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,5%&lt;/td&gt;&lt;td&gt;-0,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,3%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,5%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 7. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -175,6 +180,7 @@
 Im Kanton Basel-Stadt hat die GLP einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Basel-Stadt im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;32,7%&lt;/td&gt;&lt;td&gt;-0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;17,7%&lt;/td&gt;&lt;td&gt;+6,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;LDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,3%&lt;/td&gt;&lt;td&gt;+3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;5,7%&lt;/td&gt;&lt;td&gt;+0,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;12,4%&lt;/td&gt;&lt;td&gt;-5,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,0%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,6%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,0%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 4. Es wurde ein Sitz weniger vergeben als noch 2019.
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -184,6 +190,7 @@
 Im Kanton Freiburg haben die Grünen einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Freiburg im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;21,2%&lt;/td&gt;&lt;td&gt;-3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;17,8%&lt;/td&gt;&lt;td&gt;-4,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;20,2%&lt;/td&gt;&lt;td&gt;-5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,4%&lt;/td&gt;&lt;td&gt;+1,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;12,5%&lt;/td&gt;&lt;td&gt;+7,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;+2,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CSP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,3%&lt;/td&gt;&lt;td&gt;+1,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 7. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -193,6 +200,7 @@
 Im Kanton Genf haben die Grünen (+2), die PdA (+1) und die GLP (+1) Sitze gewonnen. Die FDP (-1), die SP (-1) und die MCG (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton Genf im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;24,6%&lt;/td&gt;&lt;td&gt;+13,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;17,9%&lt;/td&gt;&lt;td&gt;-2,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;14,7%&lt;/td&gt;&lt;td&gt;-5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,7%&lt;/td&gt;&lt;td&gt;-4,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;7,7%&lt;/td&gt;&lt;td&gt;-4,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,4%&lt;/td&gt;&lt;td&gt;+1,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;+3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MCG&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;5,4%&lt;/td&gt;&lt;td&gt;-2,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 12. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -202,6 +210,7 @@
 Die Sitzverteilung im Kanton Glarus bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Glarus im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;63,0%&lt;/td&gt;&lt;td&gt;+11,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;28,2%&lt;/td&gt;&lt;td&gt;-16,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,0%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 1. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -211,6 +220,7 @@
 Im Kanton Graubünden haben die SP (+1) und die FDP (+1) Sitze gewonnen. Die SVP (-1) und die BDP (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton Graubünden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;17,1%&lt;/td&gt;&lt;td&gt;-0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;29,9%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,3%&lt;/td&gt;&lt;td&gt;-0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;13,6%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;-5,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,3%&lt;/td&gt;&lt;td&gt;+0,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,5%&lt;/td&gt;&lt;td&gt;+5,5&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 5. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -220,6 +230,7 @@
 Die Sitzverteilung im Kanton Jura bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Jura im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;27,0%&lt;/td&gt;&lt;td&gt;+3,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,8%&lt;/td&gt;&lt;td&gt;-4,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,6%&lt;/td&gt;&lt;td&gt;+8,3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,5%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CSP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,6%&lt;/td&gt;&lt;td&gt;+3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;-7,7&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 2. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -229,6 +240,7 @@
 Im Kanton Luzern hat die GLP einen Sitz gewonnen. Die SVP (-1) und die FDP (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton Luzern im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,5%&lt;/td&gt;&lt;td&gt;+1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;24,7%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;15,6%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,5%&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,2%&lt;/td&gt;&lt;td&gt;+5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,1%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 9. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -238,6 +250,7 @@
 Im Kanton Neuenburg haben die Grünen einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Neuenburg im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,3%&lt;/td&gt;&lt;td&gt;-2,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;20,8%&lt;/td&gt;&lt;td&gt;+11,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,6%&lt;/td&gt;&lt;td&gt;-7,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;+1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-7,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,1%&lt;/td&gt;&lt;td&gt;+5,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,2%&lt;/td&gt;&lt;td&gt;+0,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 4. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -247,6 +260,7 @@
 Die Sitzverteilung im Kanton Nidwalden bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Nidwalden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;64,2%&lt;/td&gt;&lt;td&gt;-18,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;35,8%&lt;/td&gt;&lt;td&gt;+35,8&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 1. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -256,6 +270,7 @@
 Im Kanton Obwalden hat die SVP einen Sitz gewonnen. Die weitere hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Obwalden im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;37,3%&lt;/td&gt;&lt;td&gt;+2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,7%&lt;/td&gt;&lt;td&gt;+36,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,6%&lt;/td&gt;&lt;td&gt;+11,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;11,5%&lt;/td&gt;&lt;td&gt;-53,9&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 1. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -265,6 +280,7 @@
 Im Kanton St. Gallen haben die Grünen (+1) und die GLP (+1) Sitze gewonnen. Die SVP (-1) und die Mitte (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton St. Gallen im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;31,3%&lt;/td&gt;&lt;td&gt;-4,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;18,8%&lt;/td&gt;&lt;td&gt;+2,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,0%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-1,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,5%&lt;/td&gt;&lt;td&gt;+4,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;7,3%&lt;/td&gt;&lt;td&gt;+2,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 12. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -274,6 +290,7 @@
 Die Sitzverteilung im Kanton Schaffhausen bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Schaffhausen im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;39,5%&lt;/td&gt;&lt;td&gt;-5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;26,2%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,0%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,8%&lt;/td&gt;&lt;td&gt;+3,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,9%&lt;/td&gt;&lt;td&gt;+5,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EDU&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,4%&lt;/td&gt;&lt;td&gt;-1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FGA&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,2%&lt;/td&gt;&lt;td&gt;-1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 2. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -283,6 +300,7 @@
 Im Kanton Solothurn haben die Grünen einen Sitz gewonnen. Die SP hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Solothurn im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;25,9%&lt;/td&gt;&lt;td&gt;-2,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,5%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;18,4%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,2%&lt;/td&gt;&lt;td&gt;-0,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;11,4%&lt;/td&gt;&lt;td&gt;+5,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;6,8%&lt;/td&gt;&lt;td&gt;+3,4&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 6. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -292,6 +310,7 @@
 Die Sitzverteilung im Kanton Schwyz bleibt unverändert. 
 Das Resultat der Nationalratswahlen im Kanton Schwyz im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,9%&lt;/td&gt;&lt;td&gt;-5,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,1%&lt;/td&gt;&lt;td&gt;+2,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,4%&lt;/td&gt;&lt;td&gt;-1,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,8%&lt;/td&gt;&lt;td&gt;+0,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,6%&lt;/td&gt;&lt;td&gt;+1,8&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 4. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -301,6 +320,7 @@
 Im Kanton Thurgau haben die Grünen einen Sitz gewonnen. Die FDP hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Thurgau im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;36,7%&lt;/td&gt;&lt;td&gt;-3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,7%&lt;/td&gt;&lt;td&gt;-0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;12,6%&lt;/td&gt;&lt;td&gt;-0,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,6%&lt;/td&gt;&lt;td&gt;+5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;11,5%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;8,1%&lt;/td&gt;&lt;td&gt;+2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 6. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -310,6 +330,7 @@
 Im Kanton Tessin haben die Grünen einen Sitz gewonnen. Die Lega hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Tessin im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;20,5%&lt;/td&gt;&lt;td&gt;-3,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;18,2%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Lega&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;16,9%&lt;/td&gt;&lt;td&gt;-4,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;-1,9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;12,1%&lt;/td&gt;&lt;td&gt;+8,6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;11,7%&lt;/td&gt;&lt;td&gt;+0,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;weitere&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,6%&lt;/td&gt;&lt;td&gt;+1,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 8. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -319,6 +340,7 @@
 Im Kanton Uri hat die Mitte einen Sitz gewonnen. Die SVP hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Uri im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;39,2%&lt;/td&gt;&lt;td&gt;+12,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;36,3%&lt;/td&gt;&lt;td&gt;-7,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;22,3%&lt;/td&gt;&lt;td&gt;+22,3&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 1. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -328,6 +350,7 @@
 Im Kanton Waadt haben die Grünen (+2) und die GLP (+1) Sitze gewonnen. Die SVP (-1) und die Mitte (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton Waadt im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,3%&lt;/td&gt;&lt;td&gt;-3,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;20,4%&lt;/td&gt;&lt;td&gt;-1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;+2&lt;/td&gt;&lt;td&gt;19,7%&lt;/td&gt;&lt;td&gt;+8,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;17,4%&lt;/td&gt;&lt;td&gt;-5,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;8,4%&lt;/td&gt;&lt;td&gt;+4,5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;PdA&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;4,1%&lt;/td&gt;&lt;td&gt;+1,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;2,4%&lt;/td&gt;&lt;td&gt;-1,6&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 19. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -337,6 +360,7 @@
 Im Kanton Wallis haben die Grünen einen Sitz gewonnen. Die Mitte hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Wallis im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;34,8%&lt;/td&gt;&lt;td&gt;-5,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;19,8%&lt;/td&gt;&lt;td&gt;-2,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;16,5%&lt;/td&gt;&lt;td&gt;-1,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;15,1%&lt;/td&gt;&lt;td&gt;+1,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;10,6%&lt;/td&gt;&lt;td&gt;+5,7&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 8. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -346,6 +370,7 @@
 Im Kanton Zug haben die Grünen einen Sitz gewonnen. Die FDP hat einen Sitz verloren.
 Das Resultat der Nationalratswahlen im Kanton Zug im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;26,6%&lt;/td&gt;&lt;td&gt;-3,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;23,8%&lt;/td&gt;&lt;td&gt;-2,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;+1&lt;/td&gt;&lt;td&gt;19,2%&lt;/td&gt;&lt;td&gt;+12,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;14,7%&lt;/td&gt;&lt;td&gt;-3,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;9,3%&lt;/td&gt;&lt;td&gt;-4,4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;5,5%&lt;/td&gt;&lt;td&gt;+2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 3. 
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
@@ -355,6 +380,7 @@
 Im Kanton Zürich haben die GLP (+3) und die Grünen (+3) Sitze gewonnen. Die SVP (-2), die SP (-2), die Mitte (-1) und die BDP (-1) haben Sitze verloren.
 Das Resultat der Nationalratswahlen im Kanton Zürich im Überblick:&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Sitze&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;td&gt;Wähleranteil&lt;/td&gt;&lt;td&gt;Veränderung zu 2019&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SVP&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;26,7%&lt;/td&gt;&lt;td&gt;-4,0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SP&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;-2&lt;/td&gt;&lt;td&gt;17,3%&lt;/td&gt;&lt;td&gt;-4,1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GLP&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;+3&lt;/td&gt;&lt;td&gt;14,0%&lt;/td&gt;&lt;td&gt;+5,8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Grüne&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;+3&lt;/td&gt;&lt;td&gt;14,1%&lt;/td&gt;&lt;td&gt;+7,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;FDP&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;13,7%&lt;/td&gt;&lt;td&gt;-1,7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Mitte&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;4,4%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;EVP&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;3,3%&lt;/td&gt;&lt;td&gt;+0,2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;BDP&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;-1&lt;/td&gt;&lt;td&gt;1,6%&lt;/td&gt;&lt;td&gt;-2,0&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
 Anzahl Sitze 2023: 36. Es wurde ein Sitz mehr vergeben als noch 2019.
+Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.
 Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.
 </t>
   </si>
